--- a/results/I3_N5_M3_T15_C100_DepCentral_s4_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871.8646384139869</v>
+        <v>442.3346384127427</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7050001621246338</v>
+        <v>0.5889999866485596</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.563205113613149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.563205113613149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>729.8400000012443</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.69</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7963616164181</v>
+        <v>11.82484646040542</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>10.64971265316876</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.145609779219558</v>
+        <v>5.145609779219562</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.995000000019</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000184</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000191</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000174</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000001775</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>76.51000000000204</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>75.92499999999927</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>89.27499999999806</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.56500000000051</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>78.53000000000065</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>115.8900000000431</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>122.2200000000521</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>120.1800000000385</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>116.5450000000401</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>117.8800000000465</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>138.9850000000316</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>146.2400000000253</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>151.9350000000305</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>159.7750000000324</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.5950000000303</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89499999999862</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999789</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999745</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999767</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>115.8900000000565</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>122.2200000000673</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>120.1800000000519</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>116.5450000000535</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>117.8800000000613</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>138.9850000000445</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>146.2400000000401</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>151.9350000000434</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>159.7750000000454</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.5950000000419</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>107.9950000000323</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>105.5100000000336</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>104.6650000000328</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>104.5050000000311</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60500000003333</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.89000000005552</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>22.22000000006636</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20.18000000005094</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.54500000005254</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.88000000006031</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>38.98500000004356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>46.24000000003912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>51.93500000004246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>59.77500000004443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>52.59500000004118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1684,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.995000000031553</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.51000000003279</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.665000000031625</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.505000000029781</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1830,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1841,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1852,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1874,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1995,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2006,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2017,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2039,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2091,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2102,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2113,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2127,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2135,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2146,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2157,10 +2132,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2168,10 +2143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2182,53 +2157,9 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
